--- a/data/trans_camb/P30_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 13,48</t>
+          <t>-13,94; 23,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 11,72</t>
+          <t>-19,47; 16,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 5,15</t>
+          <t>-19,12; 20,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 1,91</t>
+          <t>-18,94; 9,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 5,48</t>
+          <t>-18,83; 12,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 3,81</t>
+          <t>-9,72; 34,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 12,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 9,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 22,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-39,14%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,56%</t>
+          <t>46,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 140,64</t>
+          <t>-57,0; 312,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 125,94</t>
+          <t>-79,44; 193,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,83; 40,58</t>
+          <t>-71,68; 235,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 21,84</t>
+          <t>-74,26; 122,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 44,54</t>
+          <t>-79,1; 177,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 29,39</t>
+          <t>-51,64; 372,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,46; 119,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-66,0; 92,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 193,22</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 13,69</t>
+          <t>-6,58; 13,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 12,25</t>
+          <t>-9,42; 11,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,64</t>
+          <t>-4,96; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 10,39</t>
+          <t>-4,34; 13,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 11,32</t>
+          <t>-9,87; 7,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 8,53</t>
+          <t>-7,44; 10,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 9,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 7,09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 10,34</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 66,15</t>
+          <t>-25,41; 79,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 61,43</t>
+          <t>-37,13; 69,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 77,86</t>
+          <t>-21,22; 92,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 61,91</t>
+          <t>-18,5; 78,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 56,19</t>
+          <t>-38,64; 47,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 43,39</t>
+          <t>-30,11; 63,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 53,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,39; 39,06</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 55,45</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 13,03</t>
+          <t>-11,85; 7,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 13,87</t>
+          <t>-5,65; 16,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 13,61</t>
+          <t>-9,09; 11,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 6,65</t>
+          <t>-4,84; 12,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,16</t>
+          <t>-12,04; 3,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,94</t>
+          <t>-6,01; 10,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 7,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 6,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 8,33</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>-14,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 91,4</t>
+          <t>-47,65; 54,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 94,15</t>
+          <t>-23,67; 108,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 129,97</t>
+          <t>-34,96; 82,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 61,28</t>
+          <t>-26,22; 109,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 81,15</t>
+          <t>-59,33; 28,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 57,45</t>
+          <t>-30,41; 92,09</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; 50,52</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-29,83; 45,93</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-24,59; 58,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 8,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 55,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 46,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 58,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 32,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 44,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 28,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 8,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 8,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 10,67</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 9,07</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 2,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 10,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 4,16</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 8,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,46; 48,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 50,82</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 62,7</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 59,54</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-38,07; 19,96</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-16,19; 68,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 39,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 24,46</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 46,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
